--- a/Output Data/Crpo/Common_folder/Performance_testing.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance_testing.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
   <si>
     <t xml:space="preserve">Run Date</t>
   </si>
@@ -31,19 +31,19 @@
     <t xml:space="preserve">Run Time</t>
   </si>
   <si>
-    <t xml:space="preserve">https://amsin.hirepro.in/py/common/get_tenant_details/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amsin.hirepro.in/py/rpo/get_all_entity_properties/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amsin.hirepro.in/py/common/catalogs/api/v1/group-by-catalog-masters/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amsin.hirepro.in/py/rpo/get_all_candidates/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amsin.hirepro.in/py/assessment/testuser/api/v1/getTestUsersForTest/</t>
+    <t xml:space="preserve">get_tenant_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_all_entity_properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group_by_catalog_masters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_all_candidates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getTestUsersForTest</t>
   </si>
   <si>
     <t xml:space="preserve">2020-05-11</t>
@@ -58,7 +58,28 @@
     <t xml:space="preserve">07:50:PM</t>
   </si>
   <si>
-    <t xml:space="preserve">07:53:PM</t>
+    <t xml:space="preserve">2020-05-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:35:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:49:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:56:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:36:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:20:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:27:AM</t>
   </si>
   <si>
     <t xml:space="preserve">07:41:PM</t>
@@ -67,6 +88,21 @@
     <t xml:space="preserve">07:45:PM</t>
   </si>
   <si>
+    <t xml:space="preserve">08:37:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:50:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:37:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:21:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:29:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:43:PM</t>
   </si>
   <si>
@@ -76,10 +112,31 @@
     <t xml:space="preserve">07:49:PM</t>
   </si>
   <si>
+    <t xml:space="preserve">08:40:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:52:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:57:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:23:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:31:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:44:PM</t>
   </si>
   <si>
-    <t xml:space="preserve">07:52:PM</t>
+    <t xml:space="preserve">08:53:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:24:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:32:AM</t>
   </si>
 </sst>
 </file>
@@ -114,14 +171,14 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
+      <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,8 +187,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor rgb="FF008080"/>
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FA9A"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -169,7 +232,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -182,6 +245,22 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -191,6 +270,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FA9A"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -199,48 +338,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="53.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="54.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="74.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="48.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="72.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -263,7 +402,7 @@
         <v>0.6764144</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -286,7 +425,7 @@
         <v>0.7617982</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -309,37 +448,146 @@
         <v>0.6726764</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.7286112</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.5187184</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.871145</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1.1013158</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.7342706</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>0.6538162</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>0.7108338</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>0.8197674</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>1.2637128</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>1.0051308</v>
-      </c>
-    </row>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.7587778</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.4688114</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.9327828</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1.1906182</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.61098</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.8884018</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.690123</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1.7956544</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1.007747</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.9988948</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.9575628</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.657617</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.9790248</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1.062734</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0.6460498</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.7532228</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.5094716</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.8678626</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1.0478226</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0.7332582</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.7225882</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0.4900762</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.8070672</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>1.186126</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0.6793062</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="https://amsin.hirepro.in/py/common/get_tenant_details/"/>
-    <hyperlink ref="D1" r:id="rId2" display="https://amsin.hirepro.in/py/rpo/get_all_entity_properties/"/>
-    <hyperlink ref="E1" r:id="rId3" display="https://amsin.hirepro.in/py/common/catalogs/api/v1/group-by-catalog-masters/"/>
-    <hyperlink ref="F1" r:id="rId4" display="https://amsin.hirepro.in/py/rpo/get_all_candidates/"/>
-    <hyperlink ref="G1" r:id="rId5" display="https://amsin.hirepro.in/py/assessment/testuser/api/v1/getTestUsersForTest/"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -355,53 +603,53 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="53.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="54.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="74.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="48.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="72.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>2.0220664</v>
@@ -419,12 +667,12 @@
         <v>2.5881842</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>2.4586498</v>
@@ -442,7 +690,7 @@
         <v>1.329831</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -465,37 +713,145 @@
         <v>1.3194502</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>2.2036886</v>
+        <v>2.1296676</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>1.2266792</v>
+        <v>3.4161552</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>1.1519164</v>
+        <v>1.5748394</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1.7763892</v>
+        <v>2.3276196</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>1.5701364</v>
+        <v>1.2685724</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>2.0261682</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1.257503</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1.416459</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1.7598318</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>1.2801928</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>2.2829206</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1.2136094</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>2.9061118</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1.9230688</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>1.5070028</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2.1709282</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>3.5765504</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>1.638505</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>2.289677</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>3.3906792</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>2.1589454</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1.2430658</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>1.3465248</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>2.1873876</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>1.275821</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>2.0390428</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>1.1654424</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>1.4929944</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>1.7555788</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>1.348885</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="https://amsin.hirepro.in/py/common/get_tenant_details/"/>
-    <hyperlink ref="D1" r:id="rId2" display="https://amsin.hirepro.in/py/rpo/get_all_entity_properties/"/>
-    <hyperlink ref="E1" r:id="rId3" display="https://amsin.hirepro.in/py/common/catalogs/api/v1/group-by-catalog-masters/"/>
-    <hyperlink ref="F1" r:id="rId4" display="https://amsin.hirepro.in/py/rpo/get_all_candidates/"/>
-    <hyperlink ref="G1" r:id="rId5" display="https://amsin.hirepro.in/py/assessment/testuser/api/v1/getTestUsersForTest/"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -511,53 +867,53 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="53.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="54.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="74.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="48.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="72.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0.7804054</v>
@@ -575,12 +931,12 @@
         <v>0.7335528</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0.7779802</v>
@@ -598,12 +954,12 @@
         <v>0.9892408</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0.7043458</v>
@@ -621,37 +977,145 @@
         <v>0.6888894</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>1.022751</v>
+        <v>0.7145706</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.7218486</v>
+        <v>0.7758822</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.7537574</v>
+        <v>1.1341772</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1.3159746</v>
+        <v>1.2010896</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.7343266</v>
+        <v>0.8505872</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.7079038</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1.0404152</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1.139804</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1.324781</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>1.0001172</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.649763</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.7317458</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.7553798</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1.2737512</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>2.3394798</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.6280168</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.7532178</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.7001778</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1.3007294</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>1.227984</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.6548006</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.7405526</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.8343076</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1.91975</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0.7751564</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.7373706</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0.928464</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>1.0715306</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>1.1913304</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0.8262036</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="https://amsin.hirepro.in/py/common/get_tenant_details/"/>
-    <hyperlink ref="D1" r:id="rId2" display="https://amsin.hirepro.in/py/rpo/get_all_entity_properties/"/>
-    <hyperlink ref="E1" r:id="rId3" display="https://amsin.hirepro.in/py/common/catalogs/api/v1/group-by-catalog-masters/"/>
-    <hyperlink ref="F1" r:id="rId4" display="https://amsin.hirepro.in/py/rpo/get_all_candidates/"/>
-    <hyperlink ref="G1" r:id="rId5" display="https://amsin.hirepro.in/py/assessment/testuser/api/v1/getTestUsersForTest/"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -667,53 +1131,53 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="53.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="54.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="74.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="48.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="72.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="6" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>3.4656902</v>
@@ -731,12 +1195,12 @@
         <v>1.4494554</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>4.0852622</v>
@@ -754,12 +1218,12 @@
         <v>2.2289704</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>2.9817282</v>
@@ -777,37 +1241,145 @@
         <v>1.5538422</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>2.7864232</v>
+        <v>3.2355116</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>1.4211118</v>
+        <v>2.2965526</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>1.7001504</v>
+        <v>1.6291084</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>2.1929932</v>
+        <v>2.7523212</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>1.7883154</v>
+        <v>1.2779608</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>3.372143</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>2.0173792</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>3.2621486</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1.9824698</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>1.6462792</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>3.4754352</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1.942371</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1.7784548</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>2.064638</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>1.7042118</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>3.7434734</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1.9608936</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>4.0246194</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>3.2491472</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>1.7063952</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>3.5561424</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1.7586418</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>1.7372122</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>2.1464058</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>1.245937</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>3.2355472</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>1.446872</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>1.5704184</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>2.1443622</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>1.4688126</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="https://amsin.hirepro.in/py/common/get_tenant_details/"/>
-    <hyperlink ref="D1" r:id="rId2" display="https://amsin.hirepro.in/py/rpo/get_all_entity_properties/"/>
-    <hyperlink ref="E1" r:id="rId3" display="https://amsin.hirepro.in/py/common/catalogs/api/v1/group-by-catalog-masters/"/>
-    <hyperlink ref="F1" r:id="rId4" display="https://amsin.hirepro.in/py/rpo/get_all_candidates/"/>
-    <hyperlink ref="G1" r:id="rId5" display="https://amsin.hirepro.in/py/assessment/testuser/api/v1/getTestUsersForTest/"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Output Data/Crpo/Common_folder/Performance_testing.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance_testing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AMSIN_NON_EU" sheetId="1" state="visible" r:id="rId2"/>
@@ -257,7 +257,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -340,8 +340,8 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -586,7 +586,7 @@
         <v>0.6793062</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -603,10 +603,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -851,6 +851,7 @@
         <v>1.348885</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -867,10 +868,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1115,6 +1116,7 @@
         <v>0.8262036</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1131,10 +1133,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1379,6 +1381,7 @@
         <v>1.4688126</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Output Data/Crpo/Common_folder/Performance_testing.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance_testing.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="46">
   <si>
     <t xml:space="preserve">Run Date</t>
   </si>
@@ -82,6 +82,18 @@
     <t xml:space="preserve">11:27:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-05-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:55:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:59:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:05:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:41:PM</t>
   </si>
   <si>
@@ -103,6 +115,9 @@
     <t xml:space="preserve">11:29:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">08:00:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:43:PM</t>
   </si>
   <si>
@@ -137,6 +152,15 @@
   </si>
   <si>
     <t xml:space="preserve">11:32:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:02:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:06:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:09:AM</t>
   </si>
 </sst>
 </file>
@@ -257,7 +281,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -338,10 +362,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -586,7 +610,75 @@
         <v>0.6793062</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0.6828446</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0.584492</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.6073196</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1.3202734</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0.8715832</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0.7597984</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0.5214974</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.6547488</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>1.138254</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0.7388546</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0.7175262</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0.7513968</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0.8812336</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>1.6749778</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0.6422162</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -603,7 +695,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
@@ -649,7 +741,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>2.0220664</v>
@@ -672,7 +764,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>2.4586498</v>
@@ -718,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2.1296676</v>
@@ -741,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>2.0261682</v>
@@ -787,7 +879,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>2.1709282</v>
@@ -810,7 +902,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>2.1589454</v>
@@ -833,7 +925,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>2.0390428</v>
@@ -851,7 +943,75 @@
         <v>1.348885</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>2.1974606</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>3.3558078</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>1.3679732</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1.9912686</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>1.0220436</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>1.9875636</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>1.1025608</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>1.5520504</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>1.6982798</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>1.2850914</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>2.0600054</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>1.6223654</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>2.0509588</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>1.6495516</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>1.3474122</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -868,7 +1028,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
@@ -914,7 +1074,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0.7804054</v>
@@ -937,7 +1097,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0.7779802</v>
@@ -960,7 +1120,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0.7043458</v>
@@ -983,7 +1143,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0.7145706</v>
@@ -1006,7 +1166,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>0.7079038</v>
@@ -1029,7 +1189,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>0.649763</v>
@@ -1052,7 +1212,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>0.6280168</v>
@@ -1075,7 +1235,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>0.6548006</v>
@@ -1098,7 +1258,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>0.7373706</v>
@@ -1116,7 +1276,75 @@
         <v>0.8262036</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0.6173612</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0.9932774</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.7973548</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1.641016</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0.8644848</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0.7234852</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0.8300066</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.8723282</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>1.7246602</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>1.1031792</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>1.0065856</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0.8550322</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>1.4058474</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>1.6581236</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0.876376</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1133,7 +1361,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
@@ -1179,7 +1407,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>3.4656902</v>
@@ -1202,7 +1430,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>4.0852622</v>
@@ -1225,7 +1453,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>2.9817282</v>
@@ -1248,7 +1476,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>3.2355116</v>
@@ -1271,7 +1499,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>3.372143</v>
@@ -1294,7 +1522,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>3.4754352</v>
@@ -1317,7 +1545,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>3.7434734</v>
@@ -1340,7 +1568,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>3.5561424</v>
@@ -1363,7 +1591,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>3.2355472</v>
@@ -1381,7 +1609,75 @@
         <v>1.4688126</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>3.8741284</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>3.4575886</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>2.6965726</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>2.6390518</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>1.5043904</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>3.5923944</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>4.529002</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>2.2702844</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>2.3274252</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>1.5767922</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>3.353514</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>2.1057516</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>1.8601428</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>3.3339364</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>2.1683536</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
